--- a/项目文档/会议纪录/项目会议_20200619/校准系统_第一阶段_进度计划6_19.xlsx
+++ b/项目文档/会议纪录/项目会议_20200619/校准系统_第一阶段_进度计划6_19.xlsx
@@ -760,7 +760,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>执行板单片机软件修改</t>
+    <t>ZPDU执行板单片机软件修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -903,6 +903,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -917,9 +920,6 @@
     </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4969,7 +4969,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5003,7 +5003,7 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>214</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -5015,63 +5015,63 @@
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="F2" s="14"/>
-      <c r="I2" s="17">
+      <c r="F2" s="15"/>
+      <c r="I2" s="18">
         <v>43990</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="15">
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="16">
         <v>43997</v>
       </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="15">
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="16">
         <v>44004</v>
       </c>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15">
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16">
         <v>44011</v>
       </c>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="15">
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="16">
         <v>44018</v>
       </c>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="15">
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="16">
         <v>44025</v>
       </c>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="15">
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="16">
         <v>44032</v>
       </c>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="15">
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="16">
         <v>44039</v>
       </c>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="16"/>
-      <c r="AV2" s="16"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17"/>
     </row>
     <row r="3" spans="1:48" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -5306,7 +5306,7 @@
       <c r="F7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="13" t="s">
         <v>218</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -5582,7 +5582,7 @@
         <v>43997</v>
       </c>
       <c r="F20" s="8"/>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="13" t="s">
         <v>224</v>
       </c>
       <c r="H20" s="6" t="s">
@@ -5608,7 +5608,7 @@
       <c r="F21" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="13" t="s">
         <v>225</v>
       </c>
       <c r="H21" s="6" t="s">
@@ -5634,7 +5634,7 @@
       <c r="F22" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="13" t="s">
         <v>224</v>
       </c>
       <c r="H22" s="6" t="s">
@@ -5952,7 +5952,7 @@
       <c r="F36" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="13" t="s">
         <v>219</v>
       </c>
       <c r="H36" s="6" t="s">
@@ -5978,7 +5978,7 @@
       <c r="F37" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="13" t="s">
         <v>227</v>
       </c>
       <c r="H37" s="6" t="s">
